--- a/01_doc/Presentations/Dossier 2022-2023 Julien/Comparaison des temps d'exécutions au sein de la boucle de auto mode.xlsx
+++ b/01_doc/Presentations/Dossier 2022-2023 Julien/Comparaison des temps d'exécutions au sein de la boucle de auto mode.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Stage_1DOF_DroneBench\01_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Stage_1DOF_DroneBench\01_doc\Presentations\Dossier 2022-2023 Julien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74206178-5B56-479F-AFF5-8E3226E56D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B99387-2BFC-4D00-BDF0-DB8D91391152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42F1FBAE-4704-47C6-9EC6-A37202DDD779}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{42F1FBAE-4704-47C6-9EC6-A37202DDD779}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>HAL UART RECEIVE cditions</t>
   </si>
@@ -113,6 +114,15 @@
   </si>
   <si>
     <t>moins stable</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Asservissement + load pwm</t>
+  </si>
+  <si>
+    <t>autour de 0,7ms</t>
   </si>
 </sst>
 </file>
@@ -2771,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949861EA-E65B-4FA2-BB9E-0FB2D8D9864F}">
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2804,6 +2814,13 @@
       <c r="C3">
         <v>7250</v>
       </c>
+      <c r="D3">
+        <f>7250/10000</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -2852,6 +2869,17 @@
       <c r="C9">
         <v>71</v>
       </c>
+      <c r="D9">
+        <f>SUM(C5:C9)</f>
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <f>D9/10000</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -2885,6 +2913,13 @@
         <f>SUM(C2:C12)</f>
         <v>117493</v>
       </c>
+      <c r="D13">
+        <f>C13/10000</f>
+        <v>11.7493</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -2904,12 +2939,6 @@
       <c r="C18">
         <f>C16/C13</f>
         <v>1210.612266262671</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <f>7250/10000</f>
-        <v>0.72499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3200,4 +3229,31 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B0D3AB-FAF9-4861-B274-07C41DB77BBC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>